--- a/Excel Daily Class.xlsx
+++ b/Excel Daily Class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Excel Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87090E27-3A55-4768-BB44-EC6E619050F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8285D-5188-40C9-9511-C5FAE5279DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{AC1ADFCF-D85D-4EB9-A013-F7C2D192FE48}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="873" firstSheet="2" activeTab="11" xr2:uid="{AC1ADFCF-D85D-4EB9-A013-F7C2D192FE48}"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,15 @@
     <sheet name="Skip Blank" sheetId="7" r:id="rId8"/>
     <sheet name="Paste Special Operations" sheetId="8" r:id="rId9"/>
     <sheet name="Math and Trigo" sheetId="9" r:id="rId10"/>
+    <sheet name="IFS Functions" sheetId="11" r:id="rId11"/>
+    <sheet name="Referencing" sheetId="12" r:id="rId12"/>
+    <sheet name="Mixed Referencing" sheetId="14" r:id="rId13"/>
+    <sheet name="Name Ranging" sheetId="15" r:id="rId14"/>
+    <sheet name="Date &amp; Time" sheetId="16" r:id="rId15"/>
+    <sheet name="Fill Series" sheetId="18" r:id="rId16"/>
+    <sheet name="Information" sheetId="19" r:id="rId17"/>
+    <sheet name="Next to Column" sheetId="20" r:id="rId18"/>
+    <sheet name="Flash Fill" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="399">
   <si>
     <t>MS-WORD</t>
   </si>
@@ -222,9 +231,6 @@
     <t>Right</t>
   </si>
   <si>
-    <t>MID</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -243,9 +249,6 @@
     <t>Find</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>Replace</t>
   </si>
   <si>
@@ -405,9 +408,6 @@
     <t>Arjun Reddy</t>
   </si>
   <si>
-    <t>JP Kum</t>
-  </si>
-  <si>
     <t>Qtr-1</t>
   </si>
   <si>
@@ -577,13 +577,680 @@
   </si>
   <si>
     <t>12. PASSWORDS AND SECURITY</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Emp Code</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>Andheri (W)</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Govindpuri</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Sector 9</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Egmore</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Link Road</t>
+  </si>
+  <si>
+    <t>Cuttack</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Elgin Road</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>COUNTA</t>
+  </si>
+  <si>
+    <t>Alipore</t>
+  </si>
+  <si>
+    <t>MG Road</t>
+  </si>
+  <si>
+    <t>COUNTIF</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Abrar</t>
+  </si>
+  <si>
+    <t>Jayanagar</t>
+  </si>
+  <si>
+    <t>Shahid Khan</t>
+  </si>
+  <si>
+    <t>M.G Road</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
+  </si>
+  <si>
+    <t>Anupam Mishra</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>AVERAGEIF</t>
+  </si>
+  <si>
+    <t>Ashwini</t>
+  </si>
+  <si>
+    <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>Prateek Babbar</t>
+  </si>
+  <si>
+    <t>North Road</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>AVERAGEIFS</t>
+  </si>
+  <si>
+    <t>Sukanya Reddy</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>COUNTIFS</t>
+  </si>
+  <si>
+    <t>Satish Puri</t>
+  </si>
+  <si>
+    <t>Bandra</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Anjum Chopra</t>
+  </si>
+  <si>
+    <t>Worli</t>
+  </si>
+  <si>
+    <t>Akram Khan</t>
+  </si>
+  <si>
+    <t>S P B Road</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Manish Grover</t>
+  </si>
+  <si>
+    <t>L L R Road</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>COUNTBLANK</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Relative Demo</t>
+  </si>
+  <si>
+    <t>Absolute Referencing Demo</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Emp Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Asha</t>
+  </si>
+  <si>
+    <t>7-Up</t>
+  </si>
+  <si>
+    <t>Ansu</t>
+  </si>
+  <si>
+    <t>frooty</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Q-1 Total Salary of Training Department Employees from W Region</t>
+  </si>
+  <si>
+    <t>Q-2 Average Salary of Bangalore City Employees from S Region</t>
+  </si>
+  <si>
+    <t>Q-3 Total Number of Employees from  Training Department and from W Region</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>1st Half Name</t>
+  </si>
+  <si>
+    <t>2nd Half Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. FUNCTIONS - </t>
+  </si>
+  <si>
+    <t>They are used to perform specific tasks which is already predefined of set of rules and instructions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. TWO TYPES OF FUNCTIONS - </t>
+  </si>
+  <si>
+    <t>Built in functions</t>
+  </si>
+  <si>
+    <t>User defined functions</t>
+  </si>
+  <si>
+    <t>3. NOTE - In a function we should know about</t>
+  </si>
+  <si>
+    <t>Function name</t>
+  </si>
+  <si>
+    <t>Number of inputs and its type</t>
+  </si>
+  <si>
+    <t>Return value/type</t>
+  </si>
+  <si>
+    <t>4. To insert a column or row press ctrl shift +</t>
+  </si>
+  <si>
+    <t>5. For first half and second half we will use round function in only one side to round off the odd side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. CONCAT - used for full name. </t>
+  </si>
+  <si>
+    <t>7. " " - used to give space in between</t>
+  </si>
+  <si>
+    <t>8. In N column we used &amp; operator to write the full name</t>
+  </si>
+  <si>
+    <t>9. EXACT Function compare the two values but it is case sensitive whereas in OPERATOR it compares and it is not case sensitive</t>
+  </si>
+  <si>
+    <t>10. Anything written mannually will come under double quotes.</t>
+  </si>
+  <si>
+    <t>11. SEARCH - non case sensitive and FIND -  case sensitive</t>
+  </si>
+  <si>
+    <t>12. REPLACE - for a particular position if we have to add something we will use replace.</t>
+  </si>
+  <si>
+    <t>13. SUBSTITUTE - used to change anything, anywhere</t>
+  </si>
+  <si>
+    <t>14. NOTE - in substitute we we write 1 in instance_num then only the first position of a will be replaced by "@" not all a.</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>RIGHT(X2,LEN(X2)-FIND(" ",X2))</t>
+  </si>
+  <si>
+    <t>RIGHT("JP KUMAR",8-3)</t>
+  </si>
+  <si>
+    <t>RIGHT("JP KUMAR",5)</t>
+  </si>
+  <si>
+    <t>15. MANUAL TRACING</t>
+  </si>
+  <si>
+    <t>16. For Splitting the Text - TEXTSPLIT</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>With paste link whatever we have copied, if we change anything in the first column the same change will be applies to the paste column</t>
+  </si>
+  <si>
+    <t>It is mostly used when we have to copy one column and paste it to other sheet</t>
+  </si>
+  <si>
+    <t>Then changes made in the source column will also affect the destination column</t>
+  </si>
+  <si>
+    <t>1. If we will use RAND function it will give us random values which will be in decimals</t>
+  </si>
+  <si>
+    <t>2. If we do not want decimals we will us the function RANDBETWEEN</t>
+  </si>
+  <si>
+    <t>NOTE - But these are not helpful because after implementing these functions if we make any changes in the sheet, the random value will get change.</t>
+  </si>
+  <si>
+    <t>So to keep the value fixed we will use paste special and then value.</t>
+  </si>
+  <si>
+    <t>1. INT - It will give us the integer value, it will not round up.</t>
+  </si>
+  <si>
+    <t>2. ROUND - It will round up the value acc to the decimal.</t>
+  </si>
+  <si>
+    <t>3. ROUNDUP - It will roundup to the next integer.</t>
+  </si>
+  <si>
+    <t>4. ROUNDDOWN - It will rounddown to the previous integer.</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>MINUTES</t>
+  </si>
+  <si>
+    <t>SECOND</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CTRL+;</t>
+  </si>
+  <si>
+    <t>CTRL+SHIFT+:</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>NOW-TODAY</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Weeknum</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Linear(Step value)</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Growth(With Step Value</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Custom List</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>ISTEXT</t>
+  </si>
+  <si>
+    <t>ISNONTEXT</t>
+  </si>
+  <si>
+    <t>ISNUMBER</t>
+  </si>
+  <si>
+    <t>ISEVEN</t>
+  </si>
+  <si>
+    <t>ISODD</t>
+  </si>
+  <si>
+    <t>ISFORMULA</t>
+  </si>
+  <si>
+    <t>ISLOGICAL</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>KA-05-KP-8562</t>
+  </si>
+  <si>
+    <t>MH-05-AP-9845</t>
+  </si>
+  <si>
+    <t>Anjali ,Thakur</t>
+  </si>
+  <si>
+    <t>TN-10-RD-9878</t>
+  </si>
+  <si>
+    <t>"Priya AgarwaL"</t>
+  </si>
+  <si>
+    <t>AP-10-NA-2378</t>
+  </si>
+  <si>
+    <t>R#Vasu,Muthanna</t>
+  </si>
+  <si>
+    <t>TS-04-BA-9567</t>
+  </si>
+  <si>
+    <t>Sanjay;Gupta</t>
+  </si>
+  <si>
+    <t>KL-07-ST-8923</t>
+  </si>
+  <si>
+    <t>Jharna ,Biswal</t>
+  </si>
+  <si>
+    <t>WB-11-CG-5679</t>
+  </si>
+  <si>
+    <t>Prakash#Dutta</t>
+  </si>
+  <si>
+    <t>UP-09-ST-7453</t>
+  </si>
+  <si>
+    <t>Manisha;Guha</t>
+  </si>
+  <si>
+    <t>OR-06-KN-4598</t>
+  </si>
+  <si>
+    <t>Arjun,JAiN</t>
+  </si>
+  <si>
+    <t>DL-03-EG-8345</t>
+  </si>
+  <si>
+    <t>Arjun#Kapoor</t>
+  </si>
+  <si>
+    <t>GA-05-AP-3456</t>
+  </si>
+  <si>
+    <t>"Ajay Kumar"</t>
+  </si>
+  <si>
+    <t>Example-1</t>
+  </si>
+  <si>
+    <t>Example-2</t>
+  </si>
+  <si>
+    <t>Example-3</t>
+  </si>
+  <si>
+    <t>Example-4</t>
+  </si>
+  <si>
+    <t>5. Numbers are assigned to the right side and Text are assigned to the left side.</t>
+  </si>
+  <si>
+    <t>6. If some value is constant we will put a lock on it</t>
+  </si>
+  <si>
+    <t>We will do this with the help of paste special then transpose.</t>
+  </si>
+  <si>
+    <t>7. With the power function we can solve the power related ques.</t>
+  </si>
+  <si>
+    <t>9. ARABIC function is used to convert Roman data into numeric data.</t>
+  </si>
+  <si>
+    <t>8. ROMAN function is used to convert numeric data into Roman data.</t>
+  </si>
+  <si>
+    <t>10. REPT function is used to repeat the data how many times according to our need.</t>
+  </si>
+  <si>
+    <t>11. SQRT function is used to answer the square root of a number.</t>
+  </si>
+  <si>
+    <t>12. ABS function is used to give the positive value of the negative value.</t>
+  </si>
+  <si>
+    <t>NOTES -</t>
+  </si>
+  <si>
+    <t>1. We can calculate the SUM by selecting the cells that contain the salary and the same goes for AVERAGE,MAX &amp; MIN.</t>
+  </si>
+  <si>
+    <t>2. COUNT function used to calculate the numeric value and COUNTA function is used to calculate the text value as well as numeric.</t>
+  </si>
+  <si>
+    <t>3. COUNTBLANK function is used to calculate the blank spaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF STATEMENTS - </t>
+  </si>
+  <si>
+    <t>1. COUNTIF - used to calculate where there are conditions. Eg - how many employees are working in R&amp;D dept.</t>
+  </si>
+  <si>
+    <t>2. If there is any numeric value we don’t need to put quotes but if there is any character or text or symbol with number we have to put the quotes.</t>
+  </si>
+  <si>
+    <t>Q-4 Calculate Total salary given to the employees who were earning more than 10k</t>
+  </si>
+  <si>
+    <t>3. MAX &amp; MIN function are used to calculate the maximum and minimum value whereas</t>
+  </si>
+  <si>
+    <t>LARGE &amp; SMALL function can also calculate the 2nd largest , 3rd smallest number etc.</t>
+  </si>
+  <si>
+    <t>4. There is a function called UNIQUE which is used with LARGE &amp; SMALL function.</t>
+  </si>
+  <si>
+    <t>Whenever we have to calculate the 3rd largest or 2nd smallest number or whatever then we will use the</t>
+  </si>
+  <si>
+    <t>UNIQUE function so that if there are multiple values then it will consider the value only 1 time.</t>
+  </si>
+  <si>
+    <t>5. When there are multiple conditions then we will use SUMIFS,AVERAGEIFS,COUNTIFS instead of SUMIF,AVERAGEIF,COUNTIF</t>
+  </si>
+  <si>
+    <t>Q-5 Calculate the 3rd highest salary and 2nd lowest salary - 12000,4500</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +1291,14 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -679,16 +1354,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,24 +1392,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1040,68 +1725,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
-        <v>168</v>
+      <c r="A1" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF69688-F919-4A07-9B3F-BCBF0DCFB2AB}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,68 +1807,69 @@
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" t="s">
         <v>154</v>
       </c>
-      <c r="K1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>155</v>
       </c>
-      <c r="N1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" t="s">
         <v>157</v>
-      </c>
-      <c r="S1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
@@ -1212,20 +1898,52 @@
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="I2">
+        <f>POWER(G2,H2)</f>
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <f>G2^H2</f>
+        <v>16</v>
+      </c>
       <c r="K2">
         <v>4</v>
       </c>
+      <c r="L2" t="str">
+        <f>ROMAN(K2)</f>
+        <v>IV</v>
+      </c>
       <c r="N2" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="O2">
+        <f>_xlfn.ARABIC(N2)</f>
+        <v>4</v>
       </c>
       <c r="Q2">
         <v>4</v>
       </c>
+      <c r="R2" t="str">
+        <f>REPT(Q2,4)</f>
+        <v>4444</v>
+      </c>
+      <c r="S2" t="str">
+        <f>REPT($S$1,Q2)</f>
+        <v>****</v>
+      </c>
       <c r="U2">
         <v>25</v>
       </c>
+      <c r="V2">
+        <f>SQRT(U2)</f>
+        <v>5</v>
+      </c>
       <c r="X2">
         <v>-25</v>
+      </c>
+      <c r="Y2">
+        <f>ABS(X2)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -1254,20 +1972,52 @@
       <c r="H3">
         <v>3</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="4">POWER(G3,H3)</f>
+        <v>216</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="5">G3^H3</f>
+        <v>216</v>
+      </c>
       <c r="K3">
         <v>6</v>
       </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L9" si="6">ROMAN(K3)</f>
+        <v>VI</v>
+      </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O9" si="7">_xlfn.ARABIC(N3)</f>
+        <v>6</v>
       </c>
       <c r="Q3">
         <v>6</v>
       </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R11" si="8">REPT(Q3,4)</f>
+        <v>6666</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S11" si="9">REPT($S$1,Q3)</f>
+        <v>******</v>
+      </c>
       <c r="U3">
         <v>4</v>
       </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V9" si="10">SQRT(U3)</f>
+        <v>2</v>
+      </c>
       <c r="X3">
-        <v>-4</v>
+        <v>-8</v>
+      </c>
+      <c r="Y3">
+        <f>ABS(X3)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -1296,20 +2046,52 @@
       <c r="H4">
         <v>3</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="K4">
         <v>2</v>
       </c>
+      <c r="L4" t="str">
+        <f t="shared" si="6"/>
+        <v>II</v>
+      </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
+      <c r="R4" t="str">
+        <f t="shared" si="8"/>
+        <v>2222</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="9"/>
+        <v>**</v>
+      </c>
       <c r="U4">
         <v>16</v>
       </c>
+      <c r="V4">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
       <c r="X4">
         <v>-16</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y9" si="11">ABS(X4)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -1338,20 +2120,52 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
       <c r="K5">
         <v>8</v>
       </c>
+      <c r="L5" t="str">
+        <f t="shared" si="6"/>
+        <v>VIII</v>
+      </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="Q5">
         <v>8</v>
       </c>
+      <c r="R5" t="str">
+        <f t="shared" si="8"/>
+        <v>8888</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="9"/>
+        <v>********</v>
+      </c>
       <c r="U5">
         <v>125</v>
       </c>
+      <c r="V5">
+        <f t="shared" si="10"/>
+        <v>11.180339887498949</v>
+      </c>
       <c r="X5">
         <v>-125</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
@@ -1380,20 +2194,52 @@
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
       <c r="K6">
         <v>5</v>
       </c>
+      <c r="L6" t="str">
+        <f t="shared" si="6"/>
+        <v>V</v>
+      </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
+      <c r="R6" t="str">
+        <f t="shared" si="8"/>
+        <v>5555</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="9"/>
+        <v>*****</v>
+      </c>
       <c r="U6">
         <v>625</v>
       </c>
+      <c r="V6">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
       <c r="X6">
         <v>-625</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="11"/>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
@@ -1422,20 +2268,52 @@
       <c r="H7">
         <v>3</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>729</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
       <c r="K7">
         <v>9</v>
       </c>
+      <c r="L7" t="str">
+        <f t="shared" si="6"/>
+        <v>IX</v>
+      </c>
       <c r="N7" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="Q7">
         <v>9</v>
       </c>
+      <c r="R7" t="str">
+        <f t="shared" si="8"/>
+        <v>9999</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="9"/>
+        <v>*********</v>
+      </c>
       <c r="U7">
         <v>81</v>
       </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
       <c r="X7">
         <v>-81</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="11"/>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
@@ -1464,20 +2342,52 @@
       <c r="H8">
         <v>3</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="K8">
         <v>2</v>
       </c>
+      <c r="L8" t="str">
+        <f t="shared" si="6"/>
+        <v>II</v>
+      </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q8">
         <v>2</v>
       </c>
+      <c r="R8" t="str">
+        <f t="shared" si="8"/>
+        <v>2222</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="9"/>
+        <v>**</v>
+      </c>
       <c r="U8">
         <v>36</v>
       </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
       <c r="X8">
         <v>-36</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
@@ -1506,20 +2416,52 @@
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
       <c r="K9">
         <v>7</v>
       </c>
+      <c r="L9" t="str">
+        <f t="shared" si="6"/>
+        <v>VII</v>
+      </c>
       <c r="N9" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
+      <c r="R9" t="str">
+        <f t="shared" si="8"/>
+        <v>7777</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="9"/>
+        <v>*******</v>
+      </c>
       <c r="U9">
         <v>49</v>
       </c>
+      <c r="V9">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
       <c r="X9">
         <v>-49</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="11"/>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -1542,8 +2484,1801 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="Q10" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="8"/>
+        <v>AAAA</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="8"/>
+        <v>BBBB</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>382</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17A10F6-029E-464E-B7E9-8B427A6F20B0}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="69.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="10">
+        <v>12000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>184600</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="10">
+        <v>11250</v>
+      </c>
+      <c r="I4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="10">
+        <f>AVERAGE(G2:G21)</f>
+        <v>9230</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="10">
+        <v>12000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="10">
+        <f>MAX(G2:G21)</f>
+        <v>16250</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="10">
+        <v>16250</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="10">
+        <f>MIN(G2:G21)</f>
+        <v>4500</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6400</v>
+      </c>
+      <c r="I7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7">
+        <f>COUNT(G2:G21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4500</v>
+      </c>
+      <c r="I8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8">
+        <f>COUNTA(F2:F21)</f>
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <f>SUMIFS(G2:G21,F2:F21,F2,E2:E21,E2)</f>
+        <v>16250</v>
+      </c>
+      <c r="L8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6275</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9">
+        <f>COUNTBLANK(C2:C21)</f>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGEIFS(G2:G21,D2:D21,D11,E2:E21,E5)</f>
+        <v>10000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="10">
+        <v>6250</v>
+      </c>
+      <c r="I10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10">
+        <f>COUNTIF(F2:F21,F5)</f>
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIFS(F2:F21,F2,E2:E21,E2)</f>
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="10">
+        <v>8750</v>
+      </c>
+      <c r="I11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11">
+        <f>COUNTIF(G2:G21,G2)</f>
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>90250</v>
+      </c>
+      <c r="L11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="10">
+        <v>11250</v>
+      </c>
+      <c r="I12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12">
+        <f>COUNTIF(G2:G21,"&lt;10000")</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13">
+        <f>SUMIF(E2:E21,E5,G2:G21)</f>
+        <v>70925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="10">
+        <v>16250</v>
+      </c>
+      <c r="I14" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGEIF(D2:D21,D2,G2:G21)</f>
+        <v>7812.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6400</v>
+      </c>
+      <c r="I15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J15">
+        <f>SUMIF(G2:G21,"&gt;10000")</f>
+        <v>90250</v>
+      </c>
+      <c r="L15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4500</v>
+      </c>
+      <c r="I16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16">
+        <f>LARGE(G2:G21,3)</f>
+        <v>12000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="10">
+        <v>6275</v>
+      </c>
+      <c r="I17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17">
+        <f>SMALL(G2:G21,2)</f>
+        <v>4500</v>
+      </c>
+      <c r="L17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="10">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="10">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="10">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B21" xr:uid="{9232E561-5AEE-4BA6-9D61-E0DE5310AD4D}">
+      <formula1>ISTEXT(B1)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{6AD8CC03-6D6A-4F51-A37C-13F3422E1CF3}">
+      <formula1>ISNUMBER(G2)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21" xr:uid="{CB27C5E0-CE12-459F-91C3-4D2EF0CD9903}">
+      <formula1>ISNUMBER(G2)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B5C89D-9FEE-4466-860B-45AC19460D77}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>6.7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6">
+        <v>443</v>
+      </c>
+      <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7">
+        <v>454</v>
+      </c>
+      <c r="C7">
+        <v>6.7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7">
+        <v>34005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8">
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>3.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB97553-C0A7-42F3-B5CF-B4E3741822A7}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD655B95-80DB-4DCB-85E0-A947EB6FEFEC}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3">
+        <v>12000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4">
+        <v>11250</v>
+      </c>
+      <c r="E4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>12000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>16250</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7">
+        <v>6400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>16250</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14" xr:uid="{47E8206F-B675-4CD5-ABE8-A72D88218A6D}">
+      <formula1>ISNUMBER(B2)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A19" xr:uid="{71329F4D-B3D0-4CDC-AA32-1C5EB7A74133}">
+      <formula1>ISTEXT(A1)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5D7FD-94B1-453B-A6A0-249F23D31E9A}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.61117256944271503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="3">
+        <f ca="1">TODAY()</f>
+        <v>46027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F29B4B-843D-469F-A984-EDA6AB492ED8}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64F7AEE-FA49-4A94-94C6-B1BF128AFEE0}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <f ca="1">TODAY()</f>
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677195FD-8805-4348-AA46-87D35520D1E7}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F11" xr:uid="{1224B44A-2991-42B5-AFD4-DD6F09344B4A}">
+      <formula1>ISTEXT(F1)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F9CC88-2909-47F4-AB7E-519937CBEF6F}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A11" xr:uid="{993A184F-4B78-4C15-A0B3-BFF7B3C7D6F6}">
+      <formula1>ISTEXT(A1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1563,10 +4298,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1675,53 +4410,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1742,7 +4477,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2002,93 +4737,101 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BC14B3-E17D-488F-9E7D-C8D8688E0C2F}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="20" max="20" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="R1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>71</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>73</v>
       </c>
       <c r="B2" t="str">
         <f>UPPER(A2)</f>
@@ -2107,76 +4850,88 @@
         <v>8</v>
       </c>
       <c r="F2" t="str">
-        <f>LEFT(A2,2)</f>
-        <v>JP</v>
+        <f>LEFT(A2,4)</f>
+        <v>JP K</v>
       </c>
       <c r="G2" t="str">
         <f>RIGHT(A2,3)</f>
         <v>mar</v>
       </c>
       <c r="H2" t="str">
-        <f>MID(A2,2,3)</f>
-        <v>P K</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="str">
-        <f>I2&amp; " " &amp;J2</f>
-        <v>JP Kumar</v>
+        <f>MID(A2,4,3)</f>
+        <v>Kum</v>
+      </c>
+      <c r="I2" t="str">
+        <f>LEFT(A2,LEN(A2)/2)</f>
+        <v>JP K</v>
+      </c>
+      <c r="J2" t="str">
+        <f>RIGHT(A2,ROUND(LEN(A2)/2,0))</f>
+        <v>umar</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
       </c>
       <c r="L2" t="s">
         <v>73</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT(K2," ",L2)</f>
+        <v>JP Kumar</v>
+      </c>
+      <c r="N2" t="str">
+        <f>K2&amp;" "&amp;L2</f>
+        <v>JP Kumar</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="b">
+        <f>EXACT(O2,P2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <f>O2=P2</f>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>FIND("a",P2)</f>
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <f>SEARCH("a",P2)</f>
+        <v>7</v>
+      </c>
+      <c r="U2" t="str">
+        <f>REPLACE(P2,7,1,"@")</f>
+        <v>Jp Kum@r</v>
+      </c>
+      <c r="V2" t="str">
+        <f>SUBSTITUTE(P2,"a","@")</f>
+        <v>Jp Kum@r</v>
+      </c>
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="str">
+        <f>TRIM(W2)</f>
+        <v>JP Kumar</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>LEFT(X2,FIND(" ",X2))</f>
+        <v xml:space="preserve">JP </v>
+      </c>
+      <c r="Z2" t="str">
+        <f>RIGHT(X2,LEN(X2)-FIND(" ",X2))</f>
+        <v>Kumar</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>76</v>
-      </c>
-      <c r="N2" t="b">
-        <f>EXACT(L2,M2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <f>L2=M2</f>
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <f>FIND("a",A2)</f>
-        <v>7</v>
-      </c>
-      <c r="Q2">
-        <f>SEARCH("a",M2)</f>
-        <v>7</v>
-      </c>
-      <c r="R2" t="str">
-        <f>REPLACE(M2,7,1,"@")</f>
-        <v>Jp Kum@r</v>
-      </c>
-      <c r="S2" t="str">
-        <f>SUBSTITUTE(M2,"a","@",1)</f>
-        <v>Jp Kum@r</v>
-      </c>
-      <c r="T2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" t="str">
-        <f>TRIM(T2)</f>
-        <v>JP Kumar</v>
-      </c>
-      <c r="V2" t="str">
-        <f>LEFT(A2,FIND(" ",A2))</f>
-        <v xml:space="preserve">JP </v>
-      </c>
-      <c r="W2" t="str">
-        <f>RIGHT(U2,LEN(U2)-FIND(" ",U2))</f>
-        <v>Kumar</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>78</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B11" si="0">UPPER(A3)</f>
@@ -2195,76 +4950,88 @@
         <v>13</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" si="4">LEFT(A3,2)</f>
-        <v>An</v>
+        <f t="shared" ref="F3:F11" si="4">LEFT(A3,4)</f>
+        <v>Anja</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G11" si="5">RIGHT(A3,3)</f>
         <v>kur</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H11" si="6">MID(A3,2,3)</f>
-        <v>nja</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K11" si="7">I3&amp; " " &amp;J3</f>
-        <v>Anjali THakur</v>
+        <f t="shared" ref="H3:H11" si="6">MID(A3,4,3)</f>
+        <v>ali</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I11" si="7">LEFT(A3,LEN(A3)/2)</f>
+        <v>Anjali</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="8">RIGHT(A3,ROUND(LEN(A3)/2,0))</f>
+        <v xml:space="preserve"> THakur</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
       </c>
       <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M11" si="9">_xlfn.CONCAT(K3," ",L3)</f>
+        <v>Anjali THakur</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N11" si="10">K3&amp;" "&amp;L3</f>
+        <v>Anjali THakur</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" t="b">
+        <f t="shared" ref="Q3:Q11" si="11">EXACT(O3,P3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" ref="R3:R11" si="12">O3=P3</f>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="13">FIND("a",P3)</f>
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T11" si="14">SEARCH("a",P3)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" t="str">
+        <f>REPLACE(P3,7,1,"@")</f>
+        <v>Anjali@Thakur</v>
+      </c>
+      <c r="V3" t="str">
+        <f>SUBSTITUTE(P3,"a","@")</f>
+        <v>Anj@li Th@kur</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X11" si="15">TRIM(W3)</f>
+        <v>Anjali THakur</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" ref="Y3:Y11" si="16">LEFT(X3,FIND(" ",X3))</f>
+        <v xml:space="preserve">Anjali </v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z11" si="17">RIGHT(X3,LEN(X3)-FIND(" ",X3))</f>
+        <v>THakur</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>81</v>
-      </c>
-      <c r="N3" t="b">
-        <f t="shared" ref="N3:N11" si="8">EXACT(L3,M3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <f t="shared" ref="O3:O11" si="9">L3=M3</f>
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P11" si="10">FIND("a",A3)</f>
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q11" si="11">SEARCH("a",M3)</f>
-        <v>1</v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" ref="R3:R11" si="12">REPLACE(M3,7,1,"@")</f>
-        <v>Anjali@Thakur</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S11" si="13">SUBSTITUTE(M3,"a","@",1)</f>
-        <v>Anj@li Thakur</v>
-      </c>
-      <c r="T3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U11" si="14">TRIM(T3)</f>
-        <v>Anjali THakur</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V11" si="15">LEFT(A3,FIND(" ",A3))</f>
-        <v xml:space="preserve">Anjali </v>
-      </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3:W11" si="16">RIGHT(U3,LEN(U3)-FIND(" ",U3))</f>
-        <v>THakur</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>83</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -2284,7 +5051,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="4"/>
-        <v>Pr</v>
+        <v>Priy</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="5"/>
@@ -2292,67 +5059,79 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="6"/>
-        <v>riy</v>
-      </c>
-      <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" t="str">
+        <v xml:space="preserve">ya </v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="7"/>
-        <v>Priya AgarwaL</v>
+        <v xml:space="preserve">Priya </v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="8"/>
+        <v>AgarwaL</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
       </c>
       <c r="L4" t="s">
         <v>83</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="str">
+        <f t="shared" si="9"/>
+        <v>Priya AgarwaL</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="10"/>
+        <v>Priya AgarwaL</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="U4" t="str">
+        <f>REPLACE(P4,7,1,"@")</f>
+        <v>Priya @garwal</v>
+      </c>
+      <c r="V4" t="str">
+        <f>SUBSTITUTE(P4,"a","@")</f>
+        <v>Priy@ Ag@rw@l</v>
+      </c>
+      <c r="W4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="15"/>
+        <v>Priya AgarwaL</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Priya </v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="17"/>
+        <v>AgarwaL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>86</v>
-      </c>
-      <c r="N4" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" si="12"/>
-        <v>Priya @garwal</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="13"/>
-        <v>Priy@ Agarwal</v>
-      </c>
-      <c r="T4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" si="14"/>
-        <v>Priya AgarwaL</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">Priya </v>
-      </c>
-      <c r="W4" t="str">
-        <f t="shared" si="16"/>
-        <v>AgarwaL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>88</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -2372,7 +5151,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">R </v>
+        <v>R Va</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="5"/>
@@ -2380,67 +5159,79 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> Va</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" t="str">
+        <v>asu</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="7"/>
-        <v>R Vasu</v>
+        <v>R V</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="8"/>
+        <v>asu</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
       </c>
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" t="b">
-        <f t="shared" si="8"/>
+      <c r="M5" t="str">
+        <f t="shared" si="9"/>
+        <v>R Vasu</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="10"/>
+        <v>R Vasu</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O5" t="b">
-        <f t="shared" si="9"/>
+      <c r="R5" t="b">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="10"/>
+      <c r="S5">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="11"/>
+      <c r="T5">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="R5" t="str">
-        <f t="shared" si="12"/>
+      <c r="U5" t="str">
+        <f>REPLACE(P5,7,1,"@")</f>
         <v>R Vasu@</v>
       </c>
-      <c r="S5" t="str">
-        <f t="shared" si="13"/>
+      <c r="V5" t="str">
+        <f>SUBSTITUTE(P5,"a","@")</f>
         <v>R V@su</v>
       </c>
-      <c r="T5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="14"/>
+      <c r="W5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="15"/>
         <v>R Vasu</v>
       </c>
-      <c r="V5" t="str">
-        <f t="shared" si="15"/>
+      <c r="Y5" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">R </v>
       </c>
-      <c r="W5" t="str">
-        <f t="shared" si="16"/>
+      <c r="Z5" t="str">
+        <f t="shared" si="17"/>
         <v>Vasu</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -2460,7 +5251,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v>Sa</v>
+        <v>Sanj</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="5"/>
@@ -2468,67 +5259,79 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="6"/>
-        <v>anj</v>
-      </c>
-      <c r="I6" t="s">
+        <v>jay</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="7"/>
+        <v>Sanjay</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> GuptA</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="9"/>
+        <v>Sanjay GuptA</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="10"/>
+        <v>Sanjay GuptA</v>
+      </c>
+      <c r="O6" t="s">
         <v>93</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s">
         <v>94</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U6" t="str">
+        <f>REPLACE(P6,7,1,"@")</f>
+        <v>Sanjay@Gupta</v>
+      </c>
+      <c r="V6" t="str">
+        <f>SUBSTITUTE(P6,"a","@")</f>
+        <v>S@nj@y Gupt@</v>
+      </c>
+      <c r="W6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="15"/>
         <v>Sanjay GuptA</v>
       </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="Y6" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Sanjay </v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="17"/>
+        <v>GuptA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>96</v>
-      </c>
-      <c r="N6" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="12"/>
-        <v>Sanjay@Gupta</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="13"/>
-        <v>S@njay Gupta</v>
-      </c>
-      <c r="T6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="14"/>
-        <v>Sanjay GuptA</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">Sanjay </v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="16"/>
-        <v>GuptA</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>98</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -2548,7 +5351,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="4"/>
-        <v>Jh</v>
+        <v>Jhar</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="5"/>
@@ -2556,67 +5359,79 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="6"/>
-        <v>har</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="str">
+        <v>rna</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="7"/>
-        <v>Jharna Biswal</v>
+        <v>Jharna</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> Biswal</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
       </c>
       <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="M7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" t="b">
-        <f t="shared" si="8"/>
+      <c r="M7" t="str">
+        <f t="shared" si="9"/>
+        <v>Jharna Biswal</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="10"/>
+        <v>Jharna Biswal</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O7" t="b">
-        <f t="shared" si="9"/>
+      <c r="R7" t="b">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="10"/>
+      <c r="S7">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="11"/>
+      <c r="T7">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="R7" t="str">
-        <f t="shared" si="12"/>
+      <c r="U7" t="str">
+        <f>REPLACE(P7,7,1,"@")</f>
         <v>Jharna@Biswal</v>
       </c>
-      <c r="S7" t="str">
-        <f t="shared" si="13"/>
-        <v>Jh@rna Biswal</v>
-      </c>
-      <c r="T7" t="s">
-        <v>101</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="14"/>
+      <c r="V7" t="str">
+        <f>SUBSTITUTE(P7,"a","@")</f>
+        <v>Jh@rn@ Bisw@l</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="15"/>
         <v>Jharna Biswal</v>
       </c>
-      <c r="V7" t="str">
-        <f t="shared" si="15"/>
+      <c r="Y7" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Jharna </v>
       </c>
-      <c r="W7" t="str">
-        <f t="shared" si="16"/>
+      <c r="Z7" t="str">
+        <f t="shared" si="17"/>
         <v>Biswal</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -2636,7 +5451,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="4"/>
-        <v>Pr</v>
+        <v>Prak</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="5"/>
@@ -2644,67 +5459,79 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="6"/>
-        <v>rak</v>
-      </c>
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="str">
+        <v>kas</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="7"/>
-        <v>Prakash Dutta</v>
+        <v>Prakas</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="8"/>
+        <v>h Dutta</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
       </c>
       <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="M8" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" t="b">
-        <f t="shared" si="8"/>
+      <c r="M8" t="str">
+        <f t="shared" si="9"/>
+        <v>Prakash Dutta</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="10"/>
+        <v>Prakash Dutta</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O8" t="b">
-        <f t="shared" si="9"/>
+      <c r="R8" t="b">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="10"/>
+      <c r="S8">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="11"/>
+      <c r="T8">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="R8" t="str">
-        <f t="shared" si="12"/>
+      <c r="U8" t="str">
+        <f>REPLACE(P8,7,1,"@")</f>
         <v>Prakas@ Dutta</v>
       </c>
-      <c r="S8" t="str">
-        <f t="shared" si="13"/>
-        <v>Pr@kash Dutta</v>
-      </c>
-      <c r="T8" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="14"/>
+      <c r="V8" t="str">
+        <f>SUBSTITUTE(P8,"a","@")</f>
+        <v>Pr@k@sh Dutt@</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="15"/>
         <v>Prakash Dutta</v>
       </c>
-      <c r="V8" t="str">
-        <f t="shared" si="15"/>
+      <c r="Y8" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Prakash </v>
       </c>
-      <c r="W8" t="str">
-        <f t="shared" si="16"/>
+      <c r="Z8" t="str">
+        <f t="shared" si="17"/>
         <v>Dutta</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -2724,7 +5551,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="4"/>
-        <v>Ma</v>
+        <v>Mani</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="5"/>
@@ -2732,67 +5559,79 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="6"/>
-        <v>ani</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" t="str">
+        <v>ish</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="7"/>
-        <v>Manisha Guha</v>
+        <v>Manish</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="8"/>
+        <v>a Guha</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
       </c>
       <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" t="b">
-        <f t="shared" si="8"/>
+      <c r="M9" t="str">
+        <f t="shared" si="9"/>
+        <v>Manisha Guha</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="10"/>
+        <v>Manisha Guha</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" t="b">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O9" t="b">
-        <f t="shared" si="9"/>
+      <c r="R9" t="b">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="10"/>
+      <c r="S9">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="11"/>
+      <c r="T9">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="R9" t="str">
-        <f t="shared" si="12"/>
+      <c r="U9" t="str">
+        <f>REPLACE(P9,7,1,"@")</f>
         <v>Manish@ Guha</v>
       </c>
-      <c r="S9" t="str">
-        <f t="shared" si="13"/>
-        <v>M@nisha Guha</v>
-      </c>
-      <c r="T9" t="s">
-        <v>109</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="14"/>
+      <c r="V9" t="str">
+        <f>SUBSTITUTE(P9,"a","@")</f>
+        <v>M@nish@ Guh@</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="15"/>
         <v>Manisha Guha</v>
       </c>
-      <c r="V9" t="str">
-        <f t="shared" si="15"/>
+      <c r="Y9" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Manisha </v>
       </c>
-      <c r="W9" t="str">
-        <f t="shared" si="16"/>
+      <c r="Z9" t="str">
+        <f t="shared" si="17"/>
         <v>Guha</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -2812,7 +5651,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="4"/>
-        <v>Ar</v>
+        <v>Arju</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="5"/>
@@ -2820,67 +5659,79 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="6"/>
-        <v>rju</v>
-      </c>
-      <c r="I10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" t="str">
+        <v xml:space="preserve">un </v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="7"/>
-        <v>Arjun JAiN</v>
+        <v>Arjun</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> JAiN</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
       </c>
       <c r="L10" t="s">
         <v>110</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="str">
+        <f t="shared" si="9"/>
+        <v>Arjun JAiN</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="10"/>
+        <v>Arjun JAiN</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U10" t="str">
+        <f>REPLACE(P10,7,1,"@")</f>
+        <v>Arjun @ain</v>
+      </c>
+      <c r="V10" t="str">
+        <f>SUBSTITUTE(P10,"a","@")</f>
+        <v>Arjun J@in</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="15"/>
+        <v>Arjun JAiN</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Arjun </v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="17"/>
+        <v>JAiN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>113</v>
-      </c>
-      <c r="N10" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P10" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="12"/>
-        <v>Arjun @ain</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="13"/>
-        <v>Arjun J@in</v>
-      </c>
-      <c r="T10" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="14"/>
-        <v>Arjun JAiN</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">Arjun </v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="16"/>
-        <v>JAiN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>115</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -2900,7 +5751,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="4"/>
-        <v>Ar</v>
+        <v>Arju</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="5"/>
@@ -2908,67 +5759,204 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="6"/>
-        <v>rju</v>
-      </c>
-      <c r="I11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" t="str">
+        <v xml:space="preserve">un </v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">Arjun </v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="8"/>
+        <v>Kapoor</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="9"/>
         <v>Arjun Kapoor</v>
       </c>
-      <c r="L11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O11" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="P11">
+      <c r="N11" t="str">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Q11">
+        <v>Arjun Kapoor</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="R11" t="str">
+      <c r="R11" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U11" t="str">
+        <f>REPLACE(P11,7,1,"@")</f>
         <v>Arjun @apoor</v>
       </c>
-      <c r="S11" t="str">
-        <f t="shared" si="13"/>
+      <c r="V11" t="str">
+        <f>SUBSTITUTE(P11,"a","@")</f>
         <v>Arjun K@poor</v>
       </c>
-      <c r="T11" t="s">
-        <v>117</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="14"/>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="15"/>
         <v>Arjun Kapoor</v>
       </c>
-      <c r="V11" t="str">
-        <f t="shared" si="15"/>
+      <c r="Y11" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">Arjun </v>
       </c>
-      <c r="W11" t="str">
-        <f t="shared" si="16"/>
+      <c r="Z11" t="str">
+        <f t="shared" si="17"/>
         <v>Kapoor</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A11 I1:I11 L1:L11 T1:T11" xr:uid="{337F82FD-85EB-4182-9D08-52A836D0B434}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A11 L1:L11 I1:I11" xr:uid="{337F82FD-85EB-4182-9D08-52A836D0B434}">
       <formula1>ISTEXT(A1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2980,25 +5968,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1327C671-EC97-4EBC-BF3F-7ACD15786E9F}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -3009,64 +5996,67 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="M10" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -3074,94 +6064,105 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>115</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A11 C1:M1 A14:K14 A16:A26" xr:uid="{17D62983-459B-41ED-9181-4A3C89DD6F3B}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A11 C1:M1 A14:K14 A16:A26 C16:C26" xr:uid="{17D62983-459B-41ED-9181-4A3C89DD6F3B}">
       <formula1>ISTEXT(A1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3171,10 +6172,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E694C72B-19B2-4B6E-89D5-4220E1BB209A}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3197,35 +6198,35 @@
       <c r="E1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="5" t="str">
         <f t="shared" ref="F1:F11" si="0">E1</f>
         <v>Employee Name</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" si="0"/>
-        <v>JP Kumar</v>
+        <v>Shivam</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
@@ -3234,13 +6235,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -3249,13 +6250,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -3264,13 +6265,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -3279,13 +6280,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -3294,13 +6295,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -3309,13 +6310,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3324,13 +6325,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -3339,13 +6340,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -3354,17 +6355,32 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B11 E1:E11" xr:uid="{F8042790-4EE7-4E98-940B-CFB1630E1D87}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 A1:B11" xr:uid="{F8042790-4EE7-4E98-940B-CFB1630E1D87}">
       <formula1>ISTEXT(A1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3376,8 +6392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C4D382-B2FA-4771-94B8-9B205193186C}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3388,38 +6404,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="9"/>
+      <c r="A1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>54</v>
@@ -3427,13 +6443,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <v>65</v>
@@ -3441,10 +6457,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>78</v>
@@ -3452,13 +6468,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>66</v>
@@ -3466,13 +6482,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7">
         <v>76</v>
@@ -3480,10 +6496,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F8">
         <v>56</v>
@@ -3491,13 +6507,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>54</v>
@@ -3505,12 +6521,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3524,32 +6540,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76F4B61-A84F-47F7-A1A4-55FE870D9F73}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
       </c>
       <c r="I1">
         <v>10</v>
@@ -3563,16 +6579,16 @@
         <v>54</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>-39</v>
+        <v>-50</v>
       </c>
       <c r="D2">
-        <v>1242</v>
+        <v>2052</v>
       </c>
       <c r="E2">
-        <v>0.31481481481481483</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -3591,26 +6607,26 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>-15</v>
       </c>
       <c r="D3">
-        <v>752</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>0.5625</v>
+        <v>3.0625</v>
       </c>
       <c r="H3">
         <v>16</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I10" si="0">H3*$I$1</f>
+        <f>H3*$I$1</f>
         <v>160</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J10" si="1">I3*$J$1</f>
+        <f t="shared" ref="J3:J10" si="0">I3*$J$1</f>
         <v>-160</v>
       </c>
     </row>
@@ -3619,26 +6635,26 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>-19</v>
+        <v>-46</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>770</v>
       </c>
       <c r="E4">
-        <v>0.61818181818181817</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="H4">
         <v>55</v>
       </c>
       <c r="I4">
+        <f t="shared" ref="I4:I10" si="1">H4*$I$1</f>
+        <v>550</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
         <v>-550</v>
       </c>
     </row>
@@ -3647,26 +6663,26 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>952</v>
+        <v>448</v>
       </c>
       <c r="E5">
-        <v>0.75</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
       <c r="I5">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
         <v>-280</v>
       </c>
     </row>
@@ -3675,26 +6691,26 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="D6">
-        <v>1530</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.94117647058823495</v>
+        <v>1.2647058823529411</v>
       </c>
       <c r="H6">
         <v>34</v>
       </c>
       <c r="I6">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
         <v>-340</v>
       </c>
     </row>
@@ -3703,26 +6719,26 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>-21</v>
+        <v>-8</v>
       </c>
       <c r="D7">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>1.8181818181818181E-2</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="H7">
         <v>55</v>
       </c>
       <c r="I7">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
         <v>-550</v>
       </c>
     </row>
@@ -3731,26 +6747,26 @@
         <v>63</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="D8">
-        <v>315</v>
+        <v>2583</v>
       </c>
       <c r="E8">
-        <v>0.25396825396825395</v>
+        <v>0.53968253968253965</v>
       </c>
       <c r="H8">
         <v>63</v>
       </c>
       <c r="I8">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
         <v>-630</v>
       </c>
     </row>
@@ -3759,26 +6775,26 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>840</v>
+        <v>364</v>
       </c>
       <c r="E9">
-        <v>1.3571428571428572</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="H9">
         <v>28</v>
       </c>
       <c r="I9">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
         <v>-280</v>
       </c>
     </row>
@@ -3787,42 +6803,62 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="D10">
-        <v>624</v>
+        <v>2236</v>
       </c>
       <c r="E10">
-        <v>0.96153846153846156</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="H10">
         <v>52</v>
       </c>
       <c r="I10">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
         <v>-520</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
